--- a/input/books.xlsx
+++ b/input/books.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">numeri naturali</t>
   </si>
   <si>
-    <t xml:space="preserve">OS prealgebra_c</t>
+    <t xml:space="preserve">os_prealgebra_c</t>
   </si>
   <si>
     <t xml:space="preserve">dai numeri naturali ai numeri interi</t>
@@ -52,13 +52,13 @@
     <t xml:space="preserve">calcolo combinatorio</t>
   </si>
   <si>
-    <t xml:space="preserve">OS precalculus_c</t>
+    <t xml:space="preserve">os_precalculus_c</t>
   </si>
   <si>
     <t xml:space="preserve">disuguaglianze</t>
   </si>
   <si>
-    <t xml:space="preserve">OS elementaryalgebra_c</t>
+    <t xml:space="preserve">os_elementaryalgebra_c</t>
   </si>
   <si>
     <t xml:space="preserve">funzioni e successioni reali</t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">limite di funzioni</t>
   </si>
   <si>
-    <t xml:space="preserve">OS calculus v1_c</t>
+    <t xml:space="preserve">os_calculus_v1_c</t>
   </si>
   <si>
     <t xml:space="preserve">introduzione al concetto di spazio vettoriale</t>
   </si>
   <si>
-    <t xml:space="preserve">OS calculus v3_c</t>
+    <t xml:space="preserve">os_calculus_v3_c</t>
   </si>
   <si>
     <t xml:space="preserve">spazi vettoriali, dipendenza ed indipendenza lineare</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">definizione di integrale</t>
   </si>
   <si>
-    <t xml:space="preserve">OS calculus v2_c</t>
+    <t xml:space="preserve">os_calculus_v2_c</t>
   </si>
   <si>
     <t xml:space="preserve">il teorema fondamentale del calcolo integrale</t>
@@ -376,10 +376,10 @@
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.23"/>
@@ -423,7 +423,7 @@
       </c>
       <c r="B4" s="3" t="str">
         <f aca="false">B3</f>
-        <v>OS prealgebra_c</v>
+        <v>os_prealgebra_c</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>595</v>
@@ -435,7 +435,7 @@
       </c>
       <c r="B5" s="3" t="str">
         <f aca="false">B3</f>
-        <v>OS prealgebra_c</v>
+        <v>os_prealgebra_c</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>603</v>
@@ -469,7 +469,7 @@
       </c>
       <c r="B8" s="4" t="str">
         <f aca="false">B6</f>
-        <v>OS precalculus_c</v>
+        <v>os_precalculus_c</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>937</v>
@@ -514,7 +514,7 @@
       </c>
       <c r="B12" s="4" t="str">
         <f aca="false">B6</f>
-        <v>OS precalculus_c</v>
+        <v>os_precalculus_c</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>821</v>
@@ -540,7 +540,7 @@
       </c>
       <c r="B14" s="4" t="str">
         <f aca="false">B12</f>
-        <v>OS precalculus_c</v>
+        <v>os_precalculus_c</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>757</v>
@@ -552,7 +552,7 @@
       </c>
       <c r="B15" s="4" t="str">
         <f aca="false">B14</f>
-        <v>OS precalculus_c</v>
+        <v>os_precalculus_c</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>843</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="B16" s="4" t="str">
         <f aca="false">B15</f>
-        <v>OS precalculus_c</v>
+        <v>os_precalculus_c</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>859</v>
@@ -576,7 +576,7 @@
       </c>
       <c r="B17" s="4" t="str">
         <f aca="false">B16</f>
-        <v>OS precalculus_c</v>
+        <v>os_precalculus_c</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>214</v>

--- a/input/books.xlsx
+++ b/input/books.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">numeri naturali</t>
   </si>
   <si>
-    <t xml:space="preserve">os_prealgebra_c</t>
+    <t xml:space="preserve">os_prealgebra</t>
   </si>
   <si>
     <t xml:space="preserve">dai numeri naturali ai numeri interi</t>
@@ -52,13 +52,13 @@
     <t xml:space="preserve">calcolo combinatorio</t>
   </si>
   <si>
-    <t xml:space="preserve">os_precalculus_c</t>
+    <t xml:space="preserve">os_precalculus</t>
   </si>
   <si>
     <t xml:space="preserve">disuguaglianze</t>
   </si>
   <si>
-    <t xml:space="preserve">os_elementaryalgebra_c</t>
+    <t xml:space="preserve">os_elementaryalgebra</t>
   </si>
   <si>
     <t xml:space="preserve">funzioni e successioni reali</t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">limite di funzioni</t>
   </si>
   <si>
-    <t xml:space="preserve">os_calculus_v1_c</t>
+    <t xml:space="preserve">os_calculus_v1</t>
   </si>
   <si>
     <t xml:space="preserve">introduzione al concetto di spazio vettoriale</t>
   </si>
   <si>
-    <t xml:space="preserve">os_calculus_v3_c</t>
+    <t xml:space="preserve">os_calculus_v3</t>
   </si>
   <si>
     <t xml:space="preserve">spazi vettoriali, dipendenza ed indipendenza lineare</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">definizione di integrale</t>
   </si>
   <si>
-    <t xml:space="preserve">os_calculus_v2_c</t>
+    <t xml:space="preserve">os_calculus_v2</t>
   </si>
   <si>
     <t xml:space="preserve">il teorema fondamentale del calcolo integrale</t>
@@ -376,10 +376,10 @@
   <dimension ref="A1:AMJ39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.23"/>
@@ -423,7 +423,7 @@
       </c>
       <c r="B4" s="3" t="str">
         <f aca="false">B3</f>
-        <v>os_prealgebra_c</v>
+        <v>os_prealgebra</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>595</v>
@@ -435,7 +435,7 @@
       </c>
       <c r="B5" s="3" t="str">
         <f aca="false">B3</f>
-        <v>os_prealgebra_c</v>
+        <v>os_prealgebra</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>603</v>
@@ -469,7 +469,7 @@
       </c>
       <c r="B8" s="4" t="str">
         <f aca="false">B6</f>
-        <v>os_precalculus_c</v>
+        <v>os_precalculus</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>937</v>
@@ -514,7 +514,7 @@
       </c>
       <c r="B12" s="4" t="str">
         <f aca="false">B6</f>
-        <v>os_precalculus_c</v>
+        <v>os_precalculus</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>821</v>
@@ -540,7 +540,7 @@
       </c>
       <c r="B14" s="4" t="str">
         <f aca="false">B12</f>
-        <v>os_precalculus_c</v>
+        <v>os_precalculus</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>757</v>
@@ -552,7 +552,7 @@
       </c>
       <c r="B15" s="4" t="str">
         <f aca="false">B14</f>
-        <v>os_precalculus_c</v>
+        <v>os_precalculus</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>843</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="B16" s="4" t="str">
         <f aca="false">B15</f>
-        <v>os_precalculus_c</v>
+        <v>os_precalculus</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>859</v>
@@ -576,7 +576,7 @@
       </c>
       <c r="B17" s="4" t="str">
         <f aca="false">B16</f>
-        <v>os_precalculus_c</v>
+        <v>os_precalculus</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>214</v>

--- a/input/books.xlsx
+++ b/input/books.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="bookmarks" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="_book contents" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,11 +21,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
   <si>
     <t xml:space="preserve">topic</t>
   </si>
   <si>
+    <t xml:space="preserve">num</t>
+  </si>
+  <si>
     <t xml:space="preserve">pdf</t>
   </si>
   <si>
@@ -34,9 +38,6 @@
     <t xml:space="preserve">comment</t>
   </si>
   <si>
-    <t xml:space="preserve">CALC</t>
-  </si>
-  <si>
     <t xml:space="preserve">numeri naturali</t>
   </si>
   <si>
@@ -52,6 +53,9 @@
     <t xml:space="preserve">calcolo combinatorio</t>
   </si>
   <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">os_precalculus</t>
   </si>
   <si>
@@ -61,15 +65,24 @@
     <t xml:space="preserve">os_elementaryalgebra</t>
   </si>
   <si>
+    <t xml:space="preserve">funzioni e successioni reali (1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">funzioni e successioni reali</t>
   </si>
   <si>
+    <t xml:space="preserve">os_calculus_v2</t>
+  </si>
+  <si>
     <t xml:space="preserve">limite di funzioni</t>
   </si>
   <si>
     <t xml:space="preserve">os_calculus_v1</t>
   </si>
   <si>
+    <t xml:space="preserve">proprietà delle funzioni continue su un intervallo</t>
+  </si>
+  <si>
     <t xml:space="preserve">introduzione al concetto di spazio vettoriale</t>
   </si>
   <si>
@@ -121,33 +134,30 @@
     <t xml:space="preserve">definizione di integrale</t>
   </si>
   <si>
-    <t xml:space="preserve">os_calculus_v2</t>
-  </si>
-  <si>
     <t xml:space="preserve">il teorema fondamentale del calcolo integrale</t>
   </si>
   <si>
+    <t xml:space="preserve">MET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polinomi di taylor (prima parte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calc diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equazioni differenziali ordinarie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etc</t>
+  </si>
+  <si>
     <t xml:space="preserve">.</t>
   </si>
   <si>
-    <t xml:space="preserve">MET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">serie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polinomi di taylor (prima parte)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calc diff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equazioni differenziali ordinarie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">etc</t>
-  </si>
-  <si>
     <t xml:space="preserve">FIS</t>
   </si>
   <si>
@@ -155,6 +165,93 @@
   </si>
   <si>
     <t xml:space="preserve">calc differenziale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prealgebra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fractions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polynomials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rational vs irrational numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS_prealgebra.pdf#page=863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solve linear equations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polynomial operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binomial * binomial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">graph linear equations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OS_prealgebra.pdf#page=894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slope of a line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precalculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linear functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polynomial and rational functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exponential and rational functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigonometric functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systems of equations and ineq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ellipse/hyperbola/parabola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequences, probability and counting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calculus v1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">types of functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuity &amp; types of discontinuities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit - continuity over an interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit - composite function theorem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit - intermediate value theorem </t>
   </si>
 </sst>
 </file>
@@ -187,7 +284,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +299,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFF5CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDE8CB"/>
         <bgColor rgb="FFDEE6EF"/>
       </patternFill>
@@ -209,7 +312,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEE6EF"/>
-        <bgColor rgb="FFEEEEEE"/>
+        <bgColor rgb="FFDEDCE6"/>
       </patternFill>
     </fill>
     <fill>
@@ -221,7 +324,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0C2CD"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDEDCE6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEDCE6"/>
+        <bgColor rgb="FFDEE6EF"/>
       </patternFill>
     </fill>
   </fills>
@@ -259,21 +368,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -284,16 +401,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -330,7 +459,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDEDCE6"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -346,7 +475,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -373,373 +502,465 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.81"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="str">
-        <f aca="false">B3</f>
+      <c r="C4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f aca="false">D3</f>
         <v>os_prealgebra</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>595</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="str">
-        <f aca="false">B3</f>
+      <c r="C5" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f aca="false">D3</f>
         <v>os_prealgebra</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>603</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="0" t="n">
         <v>953</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>278</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f aca="false">D6</f>
+        <v>os_precalculus</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f aca="false">D6</f>
+        <v>os_precalculus</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>610</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f aca="false">D14</f>
+        <v>os_precalculus</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f aca="false">D16</f>
+        <v>os_precalculus</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f aca="false">D17</f>
+        <v>os_precalculus</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f aca="false">D18</f>
+        <v>os_precalculus</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="str">
-        <f aca="false">B6</f>
-        <v>os_precalculus</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f aca="false">B6</f>
-        <v>os_precalculus</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>610</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="str">
-        <f aca="false">B12</f>
-        <v>os_precalculus</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="4" t="str">
-        <f aca="false">B14</f>
-        <v>os_precalculus</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="4" t="str">
-        <f aca="false">B15</f>
-        <v>os_precalculus</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4" t="str">
-        <f aca="false">B16</f>
-        <v>os_precalculus</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="0" t="n">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="0" t="n">
         <v>435</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="0" t="n">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>569</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="0" t="n">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="0" t="n">
         <v>359</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>35</v>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>43</v>
+      <c r="B36" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="B38" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -751,4 +972,160 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>